--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl10-Cxcr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.069596</v>
+        <v>21.678587</v>
       </c>
       <c r="H2">
-        <v>87.20878800000001</v>
+        <v>65.03576100000001</v>
       </c>
       <c r="I2">
-        <v>0.1336020129980618</v>
+        <v>0.0772399443186744</v>
       </c>
       <c r="J2">
-        <v>0.1336020129980618</v>
+        <v>0.07723994431867441</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.191103</v>
       </c>
       <c r="O2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q2">
-        <v>1.851762334796</v>
+        <v>1.380947670487</v>
       </c>
       <c r="R2">
-        <v>16.665861013164</v>
+        <v>12.428529034383</v>
       </c>
       <c r="S2">
-        <v>0.01142992074810436</v>
+        <v>0.001244469640824496</v>
       </c>
       <c r="T2">
-        <v>0.01142992074810436</v>
+        <v>0.001244469640824496</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.069596</v>
+        <v>21.678587</v>
       </c>
       <c r="H3">
-        <v>87.20878800000001</v>
+        <v>65.03576100000001</v>
       </c>
       <c r="I3">
-        <v>0.1336020129980618</v>
+        <v>0.0772399443186744</v>
       </c>
       <c r="J3">
-        <v>0.1336020129980618</v>
+        <v>0.07723994431867441</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N3">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q3">
-        <v>5.916040690748002</v>
+        <v>58.56462329234768</v>
       </c>
       <c r="R3">
-        <v>53.24436621673201</v>
+        <v>527.0816096311291</v>
       </c>
       <c r="S3">
-        <v>0.03651649834710544</v>
+        <v>0.05277672519476972</v>
       </c>
       <c r="T3">
-        <v>0.03651649834710544</v>
+        <v>0.05277672519476973</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.069596</v>
+        <v>21.678587</v>
       </c>
       <c r="H4">
-        <v>87.20878800000001</v>
+        <v>65.03576100000001</v>
       </c>
       <c r="I4">
-        <v>0.1336020129980618</v>
+        <v>0.0772399443186744</v>
       </c>
       <c r="J4">
-        <v>0.1336020129980618</v>
+        <v>0.07723994431867441</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N4">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O4">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P4">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q4">
-        <v>13.877069320904</v>
+        <v>25.76509459004367</v>
       </c>
       <c r="R4">
-        <v>124.893623888136</v>
+        <v>231.885851310393</v>
       </c>
       <c r="S4">
-        <v>0.08565559390285196</v>
+        <v>0.02321874948308018</v>
       </c>
       <c r="T4">
-        <v>0.08565559390285195</v>
+        <v>0.02321874948308018</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>393.844338</v>
       </c>
       <c r="I5">
-        <v>0.6033611700312704</v>
+        <v>0.4677505770609061</v>
       </c>
       <c r="J5">
-        <v>0.6033611700312705</v>
+        <v>0.4677505770609062</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.191103</v>
       </c>
       <c r="O5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q5">
         <v>8.362759391645998</v>
@@ -762,10 +762,10 @@
         <v>75.26483452481399</v>
       </c>
       <c r="S5">
-        <v>0.05161876083439695</v>
+        <v>0.007536274110048796</v>
       </c>
       <c r="T5">
-        <v>0.05161876083439696</v>
+        <v>0.007536274110048797</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>393.844338</v>
       </c>
       <c r="I6">
-        <v>0.6033611700312704</v>
+        <v>0.4677505770609061</v>
       </c>
       <c r="J6">
-        <v>0.6033611700312705</v>
+        <v>0.4677505770609062</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N6">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q6">
-        <v>26.717480919798</v>
+        <v>354.656345003698</v>
       </c>
       <c r="R6">
-        <v>240.457328278182</v>
+        <v>3191.907105033282</v>
       </c>
       <c r="S6">
-        <v>0.1649124640694907</v>
+        <v>0.3196059225960621</v>
       </c>
       <c r="T6">
-        <v>0.1649124640694907</v>
+        <v>0.3196059225960622</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>393.844338</v>
       </c>
       <c r="I7">
-        <v>0.6033611700312704</v>
+        <v>0.4677505770609061</v>
       </c>
       <c r="J7">
-        <v>0.6033611700312705</v>
+        <v>0.4677505770609062</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N7">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O7">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P7">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q7">
-        <v>62.670349002804</v>
+        <v>156.028567457266</v>
       </c>
       <c r="R7">
-        <v>564.0331410252361</v>
+        <v>1404.257107115394</v>
       </c>
       <c r="S7">
-        <v>0.3868299451273828</v>
+        <v>0.1406083803547951</v>
       </c>
       <c r="T7">
-        <v>0.3868299451273828</v>
+        <v>0.1406083803547952</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.845377</v>
+        <v>67.370907</v>
       </c>
       <c r="H8">
-        <v>50.536131</v>
+        <v>202.112721</v>
       </c>
       <c r="I8">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924534</v>
       </c>
       <c r="J8">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924535</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.191103</v>
       </c>
       <c r="O8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q8">
-        <v>1.073067360277</v>
+        <v>4.291594146806999</v>
       </c>
       <c r="R8">
-        <v>9.657606242492999</v>
+        <v>38.624347321263</v>
       </c>
       <c r="S8">
-        <v>0.006623460610940035</v>
+        <v>0.003867459093911909</v>
       </c>
       <c r="T8">
-        <v>0.006623460610940035</v>
+        <v>0.00386745909391191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.845377</v>
+        <v>67.370907</v>
       </c>
       <c r="H9">
-        <v>50.536131</v>
+        <v>202.112721</v>
       </c>
       <c r="I9">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924534</v>
       </c>
       <c r="J9">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924535</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N9">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q9">
-        <v>3.428253209401</v>
+        <v>182.002258233841</v>
       </c>
       <c r="R9">
-        <v>30.854278884609</v>
+        <v>1638.020324104569</v>
       </c>
       <c r="S9">
-        <v>0.02116074063694823</v>
+        <v>0.1640151106186666</v>
       </c>
       <c r="T9">
-        <v>0.02116074063694823</v>
+        <v>0.1640151106186666</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.845377</v>
+        <v>67.370907</v>
       </c>
       <c r="H10">
-        <v>50.536131</v>
+        <v>202.112721</v>
       </c>
       <c r="I10">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924534</v>
       </c>
       <c r="J10">
-        <v>0.0774202805195934</v>
+        <v>0.2400398653924535</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N10">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O10">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P10">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q10">
-        <v>8.041544999997999</v>
+        <v>80.07061491009701</v>
       </c>
       <c r="R10">
-        <v>72.373904999982</v>
+        <v>720.6355341908732</v>
       </c>
       <c r="S10">
-        <v>0.04963607927170514</v>
+        <v>0.07215729567987492</v>
       </c>
       <c r="T10">
-        <v>0.04963607927170513</v>
+        <v>0.07215729567987492</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.67208</v>
+        <v>8.783890333333334</v>
       </c>
       <c r="H11">
-        <v>14.01624</v>
+        <v>26.351671</v>
       </c>
       <c r="I11">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554173</v>
       </c>
       <c r="J11">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554174</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.191103</v>
       </c>
       <c r="O11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q11">
-        <v>0.29761616808</v>
+        <v>0.5595425981236667</v>
       </c>
       <c r="R11">
-        <v>2.67854551272</v>
+        <v>5.035883383113</v>
       </c>
       <c r="S11">
-        <v>0.001837022576055182</v>
+        <v>0.000504243419931617</v>
       </c>
       <c r="T11">
-        <v>0.001837022576055182</v>
+        <v>0.000504243419931617</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.67208</v>
+        <v>8.783890333333334</v>
       </c>
       <c r="H12">
-        <v>14.01624</v>
+        <v>26.351671</v>
       </c>
       <c r="I12">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554173</v>
       </c>
       <c r="J12">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554174</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N12">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q12">
-        <v>0.9508290170400002</v>
+        <v>23.72964752790211</v>
       </c>
       <c r="R12">
-        <v>8.55746115336</v>
+        <v>213.566827751119</v>
       </c>
       <c r="S12">
-        <v>0.005868949867674265</v>
+        <v>0.02138446413796838</v>
       </c>
       <c r="T12">
-        <v>0.005868949867674265</v>
+        <v>0.02138446413796838</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.67208</v>
+        <v>8.783890333333334</v>
       </c>
       <c r="H13">
-        <v>14.01624</v>
+        <v>26.351671</v>
       </c>
       <c r="I13">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554173</v>
       </c>
       <c r="J13">
-        <v>0.0214725823120481</v>
+        <v>0.03129665232554174</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N13">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O13">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P13">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q13">
-        <v>2.23032951792</v>
+        <v>10.43969172469145</v>
       </c>
       <c r="R13">
-        <v>20.07296566128</v>
+        <v>93.957225522223</v>
       </c>
       <c r="S13">
-        <v>0.01376660986831866</v>
+        <v>0.00940794476764174</v>
       </c>
       <c r="T13">
-        <v>0.01376660986831865</v>
+        <v>0.009407944767641742</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.71501900000001</v>
+        <v>51.550662</v>
       </c>
       <c r="H14">
-        <v>107.145057</v>
+        <v>154.651986</v>
       </c>
       <c r="I14">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="J14">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.191103</v>
       </c>
       <c r="O14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q14">
-        <v>2.275082425319</v>
+        <v>3.283828720062</v>
       </c>
       <c r="R14">
-        <v>20.475741827871</v>
+        <v>29.554458480558</v>
       </c>
       <c r="S14">
-        <v>0.01404284520111809</v>
+        <v>0.00295929037364866</v>
       </c>
       <c r="T14">
-        <v>0.01404284520111809</v>
+        <v>0.002959290373648659</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.71501900000001</v>
+        <v>51.550662</v>
       </c>
       <c r="H15">
-        <v>107.145057</v>
+        <v>154.651986</v>
       </c>
       <c r="I15">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="J15">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N15">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q15">
-        <v>7.268470661747002</v>
+        <v>139.263924373906</v>
       </c>
       <c r="R15">
-        <v>65.41623595572301</v>
+        <v>1253.375319365154</v>
       </c>
       <c r="S15">
-        <v>0.04486431226221167</v>
+        <v>0.1255005744600632</v>
       </c>
       <c r="T15">
-        <v>0.04486431226221167</v>
+        <v>0.1255005744600632</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.71501900000001</v>
+        <v>51.550662</v>
       </c>
       <c r="H16">
-        <v>107.145057</v>
+        <v>154.651986</v>
       </c>
       <c r="I16">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="J16">
-        <v>0.1641439541390263</v>
+        <v>0.1836729609024243</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N16">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O16">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P16">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q16">
-        <v>17.049421480106</v>
+        <v>61.268185173202</v>
       </c>
       <c r="R16">
-        <v>153.444793320954</v>
+        <v>551.413666558818</v>
       </c>
       <c r="S16">
-        <v>0.1052367966756966</v>
+        <v>0.05521309606871244</v>
       </c>
       <c r="T16">
-        <v>0.1052367966756965</v>
+        <v>0.05521309606871244</v>
       </c>
     </row>
   </sheetData>
